--- a/04_Model_Saved/NN_full_v3_BO_test_1/hypertable_sort_NN_full_v3_BO_test_1.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_1/hypertable_sort_NN_full_v3_BO_test_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,43 +537,43 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1346201292033242</v>
+        <v>0.6659939044158829</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1346201292033242</v>
+        <v>0.6659939044158829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03821213775624831</v>
+        <v>0.01152254511641028</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1311219908117667</v>
+        <v>0.6460020874095114</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1381182675948817</v>
+        <v>0.6859857214222546</v>
       </c>
       <c r="F2" t="n">
-        <v>0.040023565509667</v>
+        <v>0.01291167236864567</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03640071000282964</v>
+        <v>0.01013341786417489</v>
       </c>
       <c r="H2" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
         <v>64</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
         <v>0.1</v>
@@ -588,54 +588,54 @@
         <v>0.0005</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0001</v>
+        <v>0.0005</v>
       </c>
       <c r="S2" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.05566263443427505</v>
+        <v>0.6451935895323646</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1346201292033242</v>
+        <v>0.6659939044158829</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04222111599209408</v>
+        <v>0.0121395743987523</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08042905263265018</v>
+        <v>0.6104426425096424</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03089621623589991</v>
+        <v>0.6799445365550869</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04254753345934053</v>
+        <v>0.01406547710454712</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04189469852484762</v>
+        <v>0.01021367169295748</v>
       </c>
       <c r="H3" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
         <v>64</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
         <v>0.1</v>
@@ -650,42 +650,42 @@
         <v>0.0005</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0001</v>
+        <v>0.0005</v>
       </c>
       <c r="S3" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02552072929108571</v>
+        <v>0.6364354056803013</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1346201292033242</v>
+        <v>0.6364354056803013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0419763959851116</v>
+        <v>0.01221505310114783</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.09892133783505884</v>
+        <v>0.5849013485113858</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1499627964172302</v>
+        <v>0.6879694628492169</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0488532021921128</v>
+        <v>0.01485560983729859</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03509958977811039</v>
+        <v>0.009574496364997078</v>
       </c>
       <c r="H4" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>128</v>
@@ -694,31 +694,899 @@
         <v>3</v>
       </c>
       <c r="L4" t="n">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="S4" t="n">
+        <v>16</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.6294647434901581</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6364354056803013</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01231806381566761</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.58843440772345</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6704950792568662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01460300473341098</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01003312289792424</v>
+      </c>
+      <c r="H5" t="n">
+        <v>256</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
         <v>128</v>
       </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>64</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="S5" t="n">
+        <v>16</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.6288665097679345</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6364354056803013</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01255410425558997</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6123943327930456</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6453386867428235</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01383170254838963</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0112765059627903</v>
+      </c>
+      <c r="H6" t="n">
+        <v>256</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>128</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>64</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="R6" t="n">
         <v>0.0001</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S6" t="n">
+        <v>64</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.6277641194679949</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6364354056803013</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01269083366302463</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.603765380710326</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6517628582256636</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01417627150658518</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01120539581946408</v>
+      </c>
+      <c r="H7" t="n">
+        <v>256</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>128</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>64</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="R7" t="n">
         <v>0.0001</v>
       </c>
-      <c r="S4" t="n">
-        <v>64</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1</v>
+      <c r="S7" t="n">
+        <v>64</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.6144196506418423</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6364354056803013</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01308098926286524</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6214954710592412</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6073438302244435</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01371546632610261</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.01244651219962785</v>
+      </c>
+      <c r="H8" t="n">
+        <v>256</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>128</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>64</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="S8" t="n">
+        <v>32</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.610615702449275</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6364354056803013</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01310765877133235</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5633961592825345</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6578352456160155</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01581413236136238</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01040118518130233</v>
+      </c>
+      <c r="H9" t="n">
+        <v>256</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>64</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>128</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="S9" t="n">
+        <v>64</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.598453445372777</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6364354056803013</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01324014688492753</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5277096171346044</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6691972736109495</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01651526398025453</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.009965029789600522</v>
+      </c>
+      <c r="H10" t="n">
+        <v>256</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>128</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>64</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="S10" t="n">
+        <v>64</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.5940153786464289</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6364354056803013</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01434697849404377</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5346503429688424</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6533804143240155</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01745623807112376</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.01123771891696379</v>
+      </c>
+      <c r="H11" t="n">
+        <v>64</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>64</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>32</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="S11" t="n">
+        <v>64</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.5937496611733408</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6364354056803013</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01387326483226692</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5397729617302977</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.647726360616384</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.01707779194383572</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01066873772069812</v>
+      </c>
+      <c r="H12" t="n">
+        <v>256</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>32</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>64</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="S12" t="n">
+        <v>16</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.5821648838327775</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6364354056803013</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01469354288691344</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5200865682198489</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6442431994457062</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01806663115664075</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01132045461718614</v>
+      </c>
+      <c r="H13" t="n">
+        <v>256</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>128</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>64</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="S13" t="n">
+        <v>16</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.5505927826057416</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5505927826057416</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01594707102437193</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4715488701558804</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6296366950556027</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01982413704041392</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01207000500832995</v>
+      </c>
+      <c r="H14" t="n">
+        <v>64</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>32</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>32</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="S14" t="n">
+        <v>32</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.5128561398885124</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6364354056803013</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0173443701195841</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4362369717560919</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5894753080209326</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02140550673007965</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.01328323350908855</v>
+      </c>
+      <c r="H15" t="n">
+        <v>64</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>128</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>128</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="S15" t="n">
+        <v>16</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.5056994330497837</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6364354056803013</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.018074656650424</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4437343842804281</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5676644818191393</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02167134232974301</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.014477970971105</v>
+      </c>
+      <c r="H16" t="n">
+        <v>32</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>128</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>128</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="S16" t="n">
+        <v>32</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.4943495014031947</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6364354056803013</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01838180072178754</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.3584386868730873</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6302603159333021</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.02482090928591787</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0119426921576572</v>
+      </c>
+      <c r="H17" t="n">
+        <v>32</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>64</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>32</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="S17" t="n">
+        <v>32</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.4325109691518583</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6364354056803013</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.02043306240811944</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3190957207704739</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5459262175332427</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.02549232837433616</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01537379644190272</v>
+      </c>
+      <c r="H18" t="n">
+        <v>32</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>32</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>32</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="S18" t="n">
+        <v>32</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
